--- a/Demo/Config/战斗.xlsx
+++ b/Demo/Config/战斗.xlsx
@@ -2,16 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="战斗逻辑" sheetId="3" r:id="rId1"/>
-    <sheet name="技能表" sheetId="1" r:id="rId2"/>
-    <sheet name="说明" sheetId="2" r:id="rId3"/>
+    <sheet name="投放模型" sheetId="4" r:id="rId2"/>
+    <sheet name="技能表" sheetId="1" r:id="rId3"/>
+    <sheet name="说明" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
   <si>
     <t>阵营</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,14 +546,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击-防御</t>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断攻击 ？&gt; 1.5*防御</t>
+  </si>
+  <si>
+    <t>基础伤害 = 攻击 - 防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害 = 攻击/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据等级取参考值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避值+暴击值+格挡值 ？&gt; 参考值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开Roll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害 = 系数 * 基础伤害 + 技能基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡差值 = 我方格挡 -敌方格挡 ？&gt; 0 (我方格挡 -敌方格挡 : 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击差值 = 我方暴击 -敌方抗暴 ？&gt; 0 (我方暴击 -敌方抗暴 : 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避差值 = 我方命中 - 敌方闪避 ？&gt; 0 (我方命中 - 敌方闪避 : 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值 = 闪避值+暴击值+格挡值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻 = 参考值 - (闪避值+暴击值+格挡值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于等于：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在参考值区间内Roll点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出本次概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害 = 技能伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害 = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害 = 技能伤害 * 1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害 = 技能伤害 * 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,6 +856,916 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>投放模型!$D$4:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>266.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>333.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>366.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>433.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>466.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3DC-4160-9486-DC4492C76DFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="378611200"/>
+        <c:axId val="378610784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="378611200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378610784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="378610784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378611200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -941,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O59"/>
+  <dimension ref="B2:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43:N60"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1155,7 +2245,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>47</v>
       </c>
@@ -1172,7 +2262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -1189,186 +2279,467 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
       <c r="C40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G43">
-        <v>1000</v>
-      </c>
-      <c r="I43">
-        <v>200</v>
-      </c>
-      <c r="K43">
-        <f>$G$43-I43</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I44">
-        <v>250</v>
-      </c>
-      <c r="K44">
-        <f t="shared" ref="K44:K59" si="0">$G$43-I44</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G45">
-        <f>G43*9/10</f>
-        <v>900</v>
-      </c>
-      <c r="I45">
-        <v>300</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I46">
-        <v>350</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="0"/>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I47">
-        <v>400</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I48">
-        <v>450</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I49">
-        <v>500</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I50">
-        <v>550</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I51">
-        <v>600</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I52">
-        <v>650</v>
-      </c>
-      <c r="K52">
-        <f>$G$43-I52</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I53">
-        <v>700</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I54">
-        <v>750</v>
-      </c>
-      <c r="K54">
-        <f>$G$43-I54</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I55">
-        <v>800</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I56">
-        <v>850</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I57">
-        <v>900</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I58">
-        <v>950</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I59">
-        <v>1000</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C62" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B7:B8 B12:B13 B24 B28" numberStoredAsText="1"/>
+    <ignoredError sqref="B7:B8 B12:B13 B24 B28 B39 B44 B47 B50:B53 B56 B65" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <f>C4/3</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <f>C5/3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <f>C6/3</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <f>C7/3</f>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>600</v>
+      </c>
+      <c r="D8">
+        <f>C8/3</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>700</v>
+      </c>
+      <c r="D9">
+        <f>C9/3</f>
+        <v>233.33333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>800</v>
+      </c>
+      <c r="D10">
+        <f>C10/3</f>
+        <v>266.66666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>900</v>
+      </c>
+      <c r="D11">
+        <f>C11/3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <f>C12/3</f>
+        <v>333.33333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>1100</v>
+      </c>
+      <c r="D13">
+        <f>C13/3</f>
+        <v>366.66666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>1200</v>
+      </c>
+      <c r="D14">
+        <f>C14/3</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1300</v>
+      </c>
+      <c r="D15">
+        <f>C15/3</f>
+        <v>433.33333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1400</v>
+      </c>
+      <c r="D16">
+        <f>C16/3</f>
+        <v>466.66666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1500</v>
+      </c>
+      <c r="D17">
+        <f>C17/3</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1600</v>
+      </c>
+      <c r="D18">
+        <f>C18-$B$4</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>1700</v>
+      </c>
+      <c r="D19">
+        <f>C19-$B$4</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1800</v>
+      </c>
+      <c r="D20">
+        <f>C20-$B$4</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>1900</v>
+      </c>
+      <c r="D21">
+        <f>C21-$B$4</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>2000</v>
+      </c>
+      <c r="D22">
+        <f>C22-$B$4</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>2100</v>
+      </c>
+      <c r="D23">
+        <f>C23-$B$4</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>2200</v>
+      </c>
+      <c r="D24">
+        <f>C24-$B$4</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>2300</v>
+      </c>
+      <c r="D25">
+        <f>C25-$B$4</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>2400</v>
+      </c>
+      <c r="D26">
+        <f>C26-$B$4</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>2500</v>
+      </c>
+      <c r="D27">
+        <f>C27-$B$4</f>
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X6"/>
   <sheetViews>
@@ -1624,7 +2995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Demo/Config/战斗.xlsx
+++ b/Demo/Config/战斗.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="技能表" sheetId="1" r:id="rId3"/>
     <sheet name="说明" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="156">
   <si>
     <t>阵营</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,22 +577,10 @@
     <t>判断攻击 ？&gt; 1.5*防御</t>
   </si>
   <si>
-    <t>基础伤害 = 攻击 - 防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础伤害 = 攻击/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能缩放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,14 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开Roll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能伤害 = 系数 * 基础伤害 + 技能基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>格挡差值 = 我方格挡 -敌方格挡 ？&gt; 0 (我方格挡 -敌方格挡 : 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,26 +665,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>判断结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最终伤害 = 技能伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闪避</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最终伤害 = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -713,10 +681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最终伤害 = 技能伤害 * 1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,14 +689,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最终伤害 = 技能伤害 * 0.5</t>
+    <t>攻防计算 = 攻击 - 防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻防计算 = 攻击/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害 = 技能系数 * 攻防计算 + 技能固定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻防计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性伤害 = 基础伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性伤害 = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性伤害 = 基础伤害 * 1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性伤害 = 基础伤害 * 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行二级属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级属性开Roll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害转加血（特殊效果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增伤、减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血、灼烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾抵消部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加能量消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以最终伤害执行受击减血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -859,7 +907,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -873,6 +921,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>攻防计算</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1006,7 +1079,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3DC-4160-9486-DC4492C76DFA}"/>
             </c:ext>
@@ -1021,11 +1094,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="378611200"/>
-        <c:axId val="378610784"/>
+        <c:axId val="-2080364544"/>
+        <c:axId val="-2080381408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378611200"/>
+        <c:axId val="-2080364544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1140,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378610784"/>
+        <c:crossAx val="-2080381408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +1148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378610784"/>
+        <c:axId val="-2080381408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378611200"/>
+        <c:crossAx val="-2080364544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2031,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O73"/>
+  <dimension ref="B2:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2289,7 +2362,7 @@
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
@@ -2306,7 +2379,7 @@
         <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
@@ -2317,7 +2390,7 @@
         <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
@@ -2325,143 +2398,143 @@
         <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
         <v>111</v>
-      </c>
-      <c r="C50" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
         <v>112</v>
-      </c>
-      <c r="C53" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C58" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D59" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D60" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C62" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C66" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C68" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" t="s">
         <v>129</v>
-      </c>
-      <c r="D68" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C70" s="12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
@@ -2471,15 +2544,79 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C72" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="4"/>
+      <c r="D79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="4"/>
+      <c r="D80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2624,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B7:B8 B12:B13 B24 B28 B39 B44 B47 B50:B53 B56 B65" numberStoredAsText="1"/>
+    <ignoredError sqref="B7:B8 B12:B13 B24 B28 B39 B44 B47 B50:B53 B56 B65 B76 B78:B86" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2497,7 +2634,7 @@
   <dimension ref="B3:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2521,7 +2658,7 @@
         <v>200</v>
       </c>
       <c r="D4">
-        <f>C4/3</f>
+        <f t="shared" ref="D4:D17" si="0">C4/3</f>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -2530,7 +2667,7 @@
         <v>300</v>
       </c>
       <c r="D5">
-        <f>C5/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2539,7 +2676,7 @@
         <v>400</v>
       </c>
       <c r="D6">
-        <f>C6/3</f>
+        <f t="shared" si="0"/>
         <v>133.33333333333334</v>
       </c>
     </row>
@@ -2548,7 +2685,7 @@
         <v>500</v>
       </c>
       <c r="D7">
-        <f>C7/3</f>
+        <f t="shared" si="0"/>
         <v>166.66666666666666</v>
       </c>
     </row>
@@ -2557,7 +2694,7 @@
         <v>600</v>
       </c>
       <c r="D8">
-        <f>C8/3</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -2566,7 +2703,7 @@
         <v>700</v>
       </c>
       <c r="D9">
-        <f>C9/3</f>
+        <f t="shared" si="0"/>
         <v>233.33333333333334</v>
       </c>
     </row>
@@ -2575,7 +2712,7 @@
         <v>800</v>
       </c>
       <c r="D10">
-        <f>C10/3</f>
+        <f t="shared" si="0"/>
         <v>266.66666666666669</v>
       </c>
     </row>
@@ -2584,7 +2721,7 @@
         <v>900</v>
       </c>
       <c r="D11">
-        <f>C11/3</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -2593,7 +2730,7 @@
         <v>1000</v>
       </c>
       <c r="D12">
-        <f>C12/3</f>
+        <f t="shared" si="0"/>
         <v>333.33333333333331</v>
       </c>
     </row>
@@ -2602,7 +2739,7 @@
         <v>1100</v>
       </c>
       <c r="D13">
-        <f>C13/3</f>
+        <f t="shared" si="0"/>
         <v>366.66666666666669</v>
       </c>
     </row>
@@ -2611,7 +2748,7 @@
         <v>1200</v>
       </c>
       <c r="D14">
-        <f>C14/3</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
@@ -2620,7 +2757,7 @@
         <v>1300</v>
       </c>
       <c r="D15">
-        <f>C15/3</f>
+        <f t="shared" si="0"/>
         <v>433.33333333333331</v>
       </c>
     </row>
@@ -2629,7 +2766,7 @@
         <v>1400</v>
       </c>
       <c r="D16">
-        <f>C16/3</f>
+        <f t="shared" si="0"/>
         <v>466.66666666666669</v>
       </c>
     </row>
@@ -2638,7 +2775,7 @@
         <v>1500</v>
       </c>
       <c r="D17">
-        <f>C17/3</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
@@ -2647,7 +2784,7 @@
         <v>1600</v>
       </c>
       <c r="D18">
-        <f>C18-$B$4</f>
+        <f t="shared" ref="D18:D27" si="1">C18-$B$4</f>
         <v>600</v>
       </c>
     </row>
@@ -2656,7 +2793,7 @@
         <v>1700</v>
       </c>
       <c r="D19">
-        <f>C19-$B$4</f>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
     </row>
@@ -2665,7 +2802,7 @@
         <v>1800</v>
       </c>
       <c r="D20">
-        <f>C20-$B$4</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
     </row>
@@ -2674,7 +2811,7 @@
         <v>1900</v>
       </c>
       <c r="D21">
-        <f>C21-$B$4</f>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
     </row>
@@ -2683,7 +2820,7 @@
         <v>2000</v>
       </c>
       <c r="D22">
-        <f>C22-$B$4</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -2692,7 +2829,7 @@
         <v>2100</v>
       </c>
       <c r="D23">
-        <f>C23-$B$4</f>
+        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
@@ -2701,7 +2838,7 @@
         <v>2200</v>
       </c>
       <c r="D24">
-        <f>C24-$B$4</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
     </row>
@@ -2710,7 +2847,7 @@
         <v>2300</v>
       </c>
       <c r="D25">
-        <f>C25-$B$4</f>
+        <f t="shared" si="1"/>
         <v>1300</v>
       </c>
     </row>
@@ -2719,7 +2856,7 @@
         <v>2400</v>
       </c>
       <c r="D26">
-        <f>C26-$B$4</f>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
     </row>
@@ -2728,7 +2865,7 @@
         <v>2500</v>
       </c>
       <c r="D27">
-        <f>C27-$B$4</f>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
     </row>
@@ -2744,7 +2881,7 @@
   <dimension ref="B3:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Demo/Config/战斗.xlsx
+++ b/Demo/Config/战斗.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="战斗逻辑" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="技能表" sheetId="1" r:id="rId3"/>
     <sheet name="说明" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="157">
   <si>
     <t>阵营</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,13 +774,17 @@
   </si>
   <si>
     <t>12.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害跳字？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,7 +911,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -946,7 +950,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1079,7 +1082,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3DC-4160-9486-DC4492C76DFA}"/>
             </c:ext>
@@ -2106,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2878,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:X6"/>
+  <dimension ref="B3:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2896,7 +2899,7 @@
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3022,8 +3025,11 @@
       <c r="X4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z4" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
         <f>D6&amp;IF(E6&lt;10,0&amp;E6,E6)</f>
         <v>100101</v>
